--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:17:43+00:00</t>
+    <t>2021-10-20T05:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:25:12+00:00</t>
+    <t>2021-10-20T19:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:39:21+00:00</t>
+    <t>2021-10-20T19:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:41:28+00:00</t>
+    <t>2021-10-20T19:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:53:48+00:00</t>
+    <t>2021-10-21T22:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T20:20:15+00:00</t>
+    <t>2021-10-27T20:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-address-validation-status.xlsx
+++ b/StructureDefinition-bc-address-validation-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/bc-address-validation-status</t>
+    <t>http://moh.fhir/bc-client/StructureDefinition/bc-address-validation-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T17:05:20+00:00</t>
+    <t>2021-11-05T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,7 +336,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/ValueSet/bc-address-validation-value-set</t>
+    <t>http://moh.fhir/bc-client/ValueSet/bc-address-validation-value-set</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.13671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
